--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Tournier/Joseph_Tournier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Tournier/Joseph_Tournier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Tournier, né à Champfromier le 25 avril 1854 et mort à Belley le 14 juillet 1938, est un chanoine français, précurseur de l'archéologie, de l'étude de la préhistoire et de la géologie du département de l'Ain. Il est également le fondateur de la première association française de parents d'élèves[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Tournier, né à Champfromier le 25 avril 1854 et mort à Belley le 14 juillet 1938, est un chanoine français, précurseur de l'archéologie, de l'étude de la préhistoire et de la géologie du département de l'Ain. Il est également le fondateur de la première association française de parents d'élèves.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Famille et enfance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph-Policarpe Tournier, dernier né d'une fratrie de neuf enfants, est le fils de François Tournier dit Sergent, garde forestier, et de Marie-Jeanne Genolin, cultivatrice.
-À sa naissance, cinq de ses frères et sœurs sont déjà morts à moins de 12 ans, dont une sœur décédée trois mois auparavant[2].
+À sa naissance, cinq de ses frères et sœurs sont déjà morts à moins de 12 ans, dont une sœur décédée trois mois auparavant.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Études et carrière professionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Tournier a fait ses études au petit séminaire de Belley, puis au grand séminaire de Brou de 1872 à 1875. Professeur en classe élémentaire au collège de Thoissey, il est ordonné prêtre le 1er septembre 1878. Il enseigne durant 13 années en tant que professeur de la classe supérieure de français.
 Il est nommé curé de Contrevoz le 1er octobre 1891, curé et archiprêtre de Saint-Rambert-en-Bugey le 17 août 1900, commensal de Monseigneur François Labeuche, chanoine titulaire, vicaire général honoraire et visiteur diocésain en 1908.
-Mgr Adolphe Manier  le nomme directeur de l'enseignement libre et inspecteur des écoles primaires catholiques du diocèse en 1910[2].
+Mgr Adolphe Manier  le nomme directeur de l'enseignement libre et inspecteur des écoles primaires catholiques du diocèse en 1910.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>L'historien</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Esprit ouvert, Joseph Tournier se passionne rapidement, alors qu'il est professeur de français, pour l’étude des sciences physiques et naturelles.
 Initié à la géologie et à la paléontologie par Monsieur Corbet de Saint-Amour, il approfondit ses connaissances avec son confrère l'abbé Beroud, un autre paléontologue amateur.
@@ -617,17 +635,19 @@
           <t>L'inventeur des associations de parents d'élèves</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Abbé Tournier est à l'origine de la première association de parents d'élèves[1]
-En 1900, l'Abbé Tournier prend ses fonctions à Saint-Rambert-en-Bugey et doit faire face à l'hostilité des instituteurs, en particulier d'un sous-maître "libre-penseur" « qui semblait prendre à tâche de détruire la foi dans l'âme des enfants afin, sans doute, de leur enlever la confiance et la sympathie qu'il (lui) témoignaient »[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Abbé Tournier est à l'origine de la première association de parents d'élèves
+En 1900, l'Abbé Tournier prend ses fonctions à Saint-Rambert-en-Bugey et doit faire face à l'hostilité des instituteurs, en particulier d'un sous-maître "libre-penseur" « qui semblait prendre à tâche de détruire la foi dans l'âme des enfants afin, sans doute, de leur enlever la confiance et la sympathie qu'il (lui) témoignaient ».
 Tournier comprend que pour faire face à cette situation, il doit tout d'abord exiger l'observation de la loi imposant la neutralité religieuse dans l’enseignement scolaire. Les plaintes restant sans réponses et sans suite, il prend note, pendant 2 années, des doléances des parents et des enfants, et met en route l'idée d'une association de pères de famille pour la surveillance de l'école.
-Une pétition, rédigée par ses soins et signée par plusieurs pères de famille (dont 2 conseillers municipaux), est remise à l'inspecteur primaire pour se plaindre d'un instituteur qui « blasphémait, parlait contre la religion et le curé »[4].
+Une pétition, rédigée par ses soins et signée par plusieurs pères de famille (dont 2 conseillers municipaux), est remise à l'inspecteur primaire pour se plaindre d'un instituteur qui « blasphémait, parlait contre la religion et le curé ».
 Le résultat de cette action est un succès et l'instituteur «rentre dans le rang».
-Devant ce succès, l'abbé Tournier envisage une association cantonale, suivant le principe « l'union fait la force ». Il obtient le soutien de M. Blois, un industriel de Saint-Rambert qui sera le cofondateur de l'association. Leur but est « de maintenir dans l'Ecole le culte du patriotisme et des traditions nationales et faire observer la neutralité religieuse inscrite dans la loi »[5].
-Un manifeste et un bulletin d’adhésion, en vue d'une réunion prévue le 1er octobre 1905 à Saint-Rambert, sont envoyés aux familles. Le ton du manifeste[6], sans doute écrit par Tournier, provoque un scandale et le ministère doit sévir. Ce manifeste sera publié par Georges Goyau dans « L'école d'aujourd'hui »[7]
+Devant ce succès, l'abbé Tournier envisage une association cantonale, suivant le principe « l'union fait la force ». Il obtient le soutien de M. Blois, un industriel de Saint-Rambert qui sera le cofondateur de l'association. Leur but est « de maintenir dans l'Ecole le culte du patriotisme et des traditions nationales et faire observer la neutralité religieuse inscrite dans la loi ».
+Un manifeste et un bulletin d’adhésion, en vue d'une réunion prévue le 1er octobre 1905 à Saint-Rambert, sont envoyés aux familles. Le ton du manifeste, sans doute écrit par Tournier, provoque un scandale et le ministère doit sévir. Ce manifeste sera publié par Georges Goyau dans « L'école d'aujourd'hui »
 La réunion aboutit à la création de l'Association des familles du Canton de Saint-Rambert. L'association est non confessionnelle. Tout le monde peut y adhérer, même les femmes, qui peuvent faire partie du conseil d'administration.
-L'association ayant rapidement fait preuve de son utilité (seulement 2 "infractions" minimes seront constatées en 1906, lors de la première assemblée générale), le modèle se répand: en 1907, on compte déjà 11 associations cantonales et 3 associations paroissiales de même type[8].
+L'association ayant rapidement fait preuve de son utilité (seulement 2 "infractions" minimes seront constatées en 1906, lors de la première assemblée générale), le modèle se répand: en 1907, on compte déjà 11 associations cantonales et 3 associations paroissiales de même type.
 </t>
         </is>
       </c>
@@ -656,7 +676,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1884 : La Grotte des Balmes, à Villereversure (avec l'abbé Béroud)
 1895 : Les Hommes préhistoriques dans l'Ain (avec Charles Guillon)
@@ -697,7 +719,9 @@
           <t>Hommages et héritages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La ville de Saint-Rambert-en-Bugey a baptisé un de ces passages « Rue de l'Abbé Joseph Tournier ».
 La revue Le Bugey, dont Joseph Tournier est l'un des cofondateurs, paraît annuellement, avec un tirage d'environ 1 300 exemplaires.</t>
